--- a/pamsi.xlsx
+++ b/pamsi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="977" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId2"/>
@@ -351,7 +351,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -771,11 +771,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="11102131"/>
-        <c:axId val="89456592"/>
+        <c:axId val="22527059"/>
+        <c:axId val="82879753"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="11102131"/>
+        <c:axId val="22527059"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -859,12 +859,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89456592"/>
+        <c:crossAx val="82879753"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89456592"/>
+        <c:axId val="82879753"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -948,7 +948,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11102131"/>
+        <c:crossAx val="22527059"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -986,7 +986,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1448,11 +1448,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="49207078"/>
-        <c:axId val="55319366"/>
+        <c:axId val="7852172"/>
+        <c:axId val="19854267"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49207078"/>
+        <c:axId val="7852172"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1536,12 +1536,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55319366"/>
+        <c:crossAx val="19854267"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55319366"/>
+        <c:axId val="19854267"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1625,7 +1625,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49207078"/>
+        <c:crossAx val="7852172"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1663,7 +1663,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2083,11 +2083,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="54289276"/>
-        <c:axId val="36418765"/>
+        <c:axId val="32304760"/>
+        <c:axId val="8385877"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54289276"/>
+        <c:axId val="32304760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2171,12 +2171,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36418765"/>
+        <c:crossAx val="8385877"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="36418765"/>
+        <c:axId val="8385877"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2260,7 +2260,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54289276"/>
+        <c:crossAx val="32304760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2298,7 +2298,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2718,11 +2718,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="4313251"/>
-        <c:axId val="8810779"/>
+        <c:axId val="2749134"/>
+        <c:axId val="97738038"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4313251"/>
+        <c:axId val="2749134"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2806,12 +2806,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8810779"/>
+        <c:crossAx val="97738038"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="8810779"/>
+        <c:axId val="97738038"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2895,7 +2895,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4313251"/>
+        <c:crossAx val="2749134"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2933,7 +2933,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3353,11 +3353,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="12651374"/>
-        <c:axId val="74206364"/>
+        <c:axId val="70970123"/>
+        <c:axId val="48917889"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="12651374"/>
+        <c:axId val="70970123"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3441,12 +3441,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74206364"/>
+        <c:crossAx val="48917889"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74206364"/>
+        <c:axId val="48917889"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3530,7 +3530,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12651374"/>
+        <c:crossAx val="70970123"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3568,7 +3568,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3988,11 +3988,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="68447904"/>
-        <c:axId val="96302045"/>
+        <c:axId val="46163656"/>
+        <c:axId val="35423934"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68447904"/>
+        <c:axId val="46163656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4076,12 +4076,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96302045"/>
+        <c:crossAx val="35423934"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96302045"/>
+        <c:axId val="35423934"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4165,7 +4165,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68447904"/>
+        <c:crossAx val="46163656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4203,7 +4203,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4623,11 +4623,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="58522030"/>
-        <c:axId val="72233045"/>
+        <c:axId val="44676940"/>
+        <c:axId val="77578233"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="58522030"/>
+        <c:axId val="44676940"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4711,12 +4711,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72233045"/>
+        <c:crossAx val="77578233"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72233045"/>
+        <c:axId val="77578233"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4800,7 +4800,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58522030"/>
+        <c:crossAx val="44676940"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4838,7 +4838,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5258,11 +5258,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="38899013"/>
-        <c:axId val="23219354"/>
+        <c:axId val="4304378"/>
+        <c:axId val="109531"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="38899013"/>
+        <c:axId val="4304378"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5346,12 +5346,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23219354"/>
+        <c:crossAx val="109531"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="23219354"/>
+        <c:axId val="109531"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5435,7 +5435,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38899013"/>
+        <c:crossAx val="4304378"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5473,7 +5473,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5893,11 +5893,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="33300701"/>
-        <c:axId val="29966690"/>
+        <c:axId val="47128325"/>
+        <c:axId val="31361504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="33300701"/>
+        <c:axId val="47128325"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5981,12 +5981,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29966690"/>
+        <c:crossAx val="31361504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="29966690"/>
+        <c:axId val="31361504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6070,7 +6070,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33300701"/>
+        <c:crossAx val="47128325"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6108,7 +6108,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6993,11 +6993,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="91895165"/>
-        <c:axId val="76179050"/>
+        <c:axId val="44169309"/>
+        <c:axId val="76462425"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91895165"/>
+        <c:axId val="44169309"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7081,12 +7081,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76179050"/>
+        <c:crossAx val="76462425"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76179050"/>
+        <c:axId val="76462425"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7170,7 +7170,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91895165"/>
+        <c:crossAx val="44169309"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7208,7 +7208,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8093,11 +8093,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="86757732"/>
-        <c:axId val="79233746"/>
+        <c:axId val="71734821"/>
+        <c:axId val="27526207"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86757732"/>
+        <c:axId val="71734821"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8181,12 +8181,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79233746"/>
+        <c:crossAx val="27526207"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79233746"/>
+        <c:axId val="27526207"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8270,7 +8270,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86757732"/>
+        <c:crossAx val="71734821"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8308,7 +8308,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9193,11 +9193,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="11030971"/>
-        <c:axId val="48238623"/>
+        <c:axId val="88049178"/>
+        <c:axId val="4782207"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="11030971"/>
+        <c:axId val="88049178"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9281,12 +9281,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48238623"/>
+        <c:crossAx val="4782207"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48238623"/>
+        <c:axId val="4782207"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9370,7 +9370,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11030971"/>
+        <c:crossAx val="88049178"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9408,7 +9408,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -10293,11 +10293,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="2951556"/>
-        <c:axId val="54270112"/>
+        <c:axId val="48684679"/>
+        <c:axId val="2734084"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2951556"/>
+        <c:axId val="48684679"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10381,12 +10381,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54270112"/>
+        <c:crossAx val="2734084"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54270112"/>
+        <c:axId val="2734084"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10470,7 +10470,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2951556"/>
+        <c:crossAx val="48684679"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10508,7 +10508,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -10678,7 +10678,7 @@
                   <c:v>234.538773</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>302.176674</c:v>
+                  <c:v>313.232333</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>495.90004</c:v>
@@ -11120,11 +11120,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="50770358"/>
-        <c:axId val="90876816"/>
+        <c:axId val="7751109"/>
+        <c:axId val="9280947"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50770358"/>
+        <c:axId val="7751109"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11208,12 +11208,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90876816"/>
+        <c:crossAx val="9280947"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90876816"/>
+        <c:axId val="9280947"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11297,7 +11297,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50770358"/>
+        <c:crossAx val="7751109"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11767,8 +11767,8 @@
   </sheetPr>
   <dimension ref="B4:AI165"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -11949,7 +11949,7 @@
         <v>10000000</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>302.176674</v>
+        <v>313.232333</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>225.800502</v>
